--- a/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
+++ b/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.529544511386084</v>
+        <v>0.470455488613916</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0265822226630916</v>
+        <v>0.973417777336908</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.963744226150455</v>
+        <v>0.036255773849545</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0068912080865404</v>
+        <v>0.99310879191346</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2879,6 +2879,734 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>6.4058204491494e-07</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.293785310734463</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0008739531959268</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0005997536945812</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0011995073891625</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.42764776646356</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.371797026278993</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0057142857142857</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.605714285714286</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.499430264357338</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-1.45398688239598</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.2463565062026</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5875650168909859</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.206099912112725</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.585987261146497</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06369426751592359</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0257680716584897</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.13125</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0009970427661509999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0020068681318681</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.01422781040616</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.041737451699503</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0169491525423729</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.542372881355932</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0008650215724881</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0016257101829682</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.57276649543303</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.786161997147679</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.389830508474576</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0006175032623188</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0027188556042073</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.000799671592775</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.441073758799188</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0267951367848368</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.265536723163842</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0003424488817458</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0006779245347387</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.728614642012425</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.785219531968827</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7909604519774009</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.008431276943271801</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.025709289214886</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.009212675284141301</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.490190519957666</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
+++ b/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.50753078827047</v>
+        <v>0.689291932838489</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.620689655172414</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0244969818913481</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.158632457576895</v>
+        <v>-0.112233130445071</v>
       </c>
       <c r="M2" t="n">
-        <v>0.135819437043582</v>
+        <v>0.330446479718203</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.26626425217974</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.470455488613916</v>
+        <v>0.101295586794652</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.827586206896552</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.02</v>
+        <v>11.04</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0062414559125086</v>
+        <v>-0.0702403846153843</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0902293880475423</v>
+        <v>-0.116321656050956</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0689150943396229</v>
+        <v>0.0169782381657965</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.056637530966503</v>
+        <v>-0.636235367892974</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.008599823813012599</v>
+        <v>0.442733116093124</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0025541958041958</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000801793850205</v>
+        <v>-0.0014577276944648</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0042773219074408</v>
+        <v>0.0018326209579927</v>
       </c>
       <c r="N4" t="n">
-        <v>6.54922001075847</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.173712076916003</v>
+        <v>0.288474310124054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.793103448275862</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K5" t="n">
-        <v>7.7492927864215</v>
+        <v>5.65468989405349</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.79893426158287</v>
+        <v>-9.162121098438959</v>
       </c>
       <c r="M5" t="n">
-        <v>21.8694748796991</v>
+        <v>19.1230865256225</v>
       </c>
       <c r="N5" t="n">
-        <v>7.67256711526881</v>
+        <v>5.7118079737914</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.981818181818182</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0363636363636364</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.99042742304554</v>
+        <v>0.999971774938631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.610169491525424</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="H7" t="n">
         <v>0.0508474576271186</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.999042985517251</v>
+        <v>0.0648172904395064</v>
       </c>
       <c r="G8" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H8" t="n">
-        <v>0.779661016949153</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1122,16 +1122,16 @@
         <v>0.057</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0055188873626373</v>
+        <v>0.0043798216586045</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.009030906593406499</v>
+        <v>-0.0011925179477045</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0040137362637362</v>
+        <v>0.0087278094056016</v>
       </c>
       <c r="N8" t="n">
-        <v>-9.68225853094274</v>
+        <v>7.68389764667466</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.973417777336908</v>
+        <v>0.977979214504943</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.706896551724138</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.785</v>
+        <v>7.82</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0447244897959187</v>
+        <v>0.0474350649350651</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0070523315863512</v>
+        <v>0.0069247020681628</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0788299264139856</v>
+        <v>0.08365306141275761</v>
       </c>
       <c r="N9" t="n">
-        <v>0.574495694231455</v>
+        <v>0.606586508121037</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.993056122895963</v>
+        <v>0.0102944668208415</v>
       </c>
       <c r="G10" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.728813559322034</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1300,16 +1300,16 @@
         <v>0.063</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00533665994972</v>
+        <v>0.0047424205259026</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0099687280100332</v>
+        <v>0.0010010937975817</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0035058662285701</v>
+        <v>0.0077927807657069</v>
       </c>
       <c r="N10" t="n">
-        <v>-8.47088880907951</v>
+        <v>7.52765162841693</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.909972211920888</v>
+        <v>0.0618052011841176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.271186440677966</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.14</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.271965748324646</v>
+        <v>0.0058777205803904</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.796847703067458</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0132939035486806</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.43931496649293</v>
+        <v>4.19837184313606</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.960374948659265</v>
+        <v>0.0884669204183241</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.423728813559322</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.13</v>
+        <v>0.049</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009845013477088899</v>
+        <v>0.0012181767648693</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0154375250057046</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0032801503322688</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.57308729006842</v>
+        <v>2.48607503034566</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0002067150951373</v>
+        <v>0.7660780865462909</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.525423728813559</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.049</v>
+        <v>1.77</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0039845454545454</v>
+        <v>-0.0592938311688312</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0022880928478377</v>
+        <v>-0.203333363928275</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005566022572481</v>
+        <v>0.0796154002709903</v>
       </c>
       <c r="N13" t="n">
-        <v>8.1317254174397</v>
+        <v>-3.34993396434075</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,46 +1634,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.728493590992155</v>
+        <v>0.484151641774978</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0307692307692308</v>
       </c>
       <c r="H14" t="n">
-        <v>0.88135593220339</v>
+        <v>0.476923076923077</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.051605180533752</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.208585647426444</v>
+        <v>-0.0531619064196491</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0728088649089941</v>
+        <v>0.0509030445090602</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.86695447409733</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,46 +1725,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.578290477120373</v>
+        <v>0.0411855314935911</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.484375</v>
+        <v>0.745614035087719</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>11.035</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.0239901477832514</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0482946306778337</v>
+        <v>-0.0400511102158035</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0636843099208472</v>
+        <v>-0.0011177105201414</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-0.217400523636171</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.036255773849545</v>
+        <v>0.786114163939256</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.776699029126214</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.04</v>
+        <v>0.038</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0257318982387475</v>
+        <v>-0.0002438251001335</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0468614197005063</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0019502072918034</v>
+        <v>0.0002951433115624</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.233078788394452</v>
+        <v>-0.641645000351346</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.318115485820748</v>
+        <v>0.363125290486444</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17" t="n">
-        <v>0.378151260504202</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04</v>
+        <v>84</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001425644028103</v>
+        <v>0.995774263904035</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0003844465535445</v>
+        <v>-2.51071755048896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0008329901472054</v>
+        <v>5.15041730162692</v>
       </c>
       <c r="N17" t="n">
-        <v>0.356411007025761</v>
+        <v>1.18544555226671</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,47 +1998,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.235162849085778</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>0.641025641025641</v>
+        <v>0.0625</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>87</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.47332832804096</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-2.50567732580872</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.90469817587787</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.69348083682869</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2046,7 +2034,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2065,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,24 +2088,36 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.999912968069619</v>
+      </c>
       <c r="G19" t="n">
-        <v>0.97</v>
+        <v>0.546218487394958</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2183,31 +2183,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.991894648283584</v>
+        <v>0.0079111401887909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.453781512605042</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.613445378151261</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001</v>
+        <v>0.051</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0025589969241285</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0005892438054711</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0039713253203498</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.01764102770295</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,46 +2259,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0005747306249238</v>
+        <v>0.998267900459865</v>
       </c>
       <c r="G21" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.613445378151261</v>
+        <v>0.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.048</v>
+        <v>7.77</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0029225702576112</v>
+        <v>0.0255419580419581</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001358154834431</v>
+        <v>0.0121345514950165</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004006109606313</v>
+        <v>0.0378637423224775</v>
       </c>
       <c r="N21" t="n">
-        <v>6.08868803669009</v>
+        <v>0.32872532872533</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2336,11 +2336,7 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2350,46 +2346,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.99310879191346</v>
+        <v>0.0059512801902912</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.611650485436893</v>
+        <v>0.613445378151261</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.75</v>
+        <v>0.0618</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0258469703670942</v>
+        <v>0.0026834693877551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0096981163366123</v>
+        <v>0.0009974540812939</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0390772676944715</v>
+        <v>0.0040072786159921</v>
       </c>
       <c r="N22" t="n">
-        <v>0.33350929505928</v>
+        <v>4.34218347533188</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2394,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2427,7 +2423,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2448,35 +2448,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0007480821448726999</v>
+        <v>0.653313583162647</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.571428571428571</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.055</v>
+        <v>0.15</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0033234758871701</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0019980905263244</v>
+        <v>-0.0033649646265444</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00487900766454</v>
+        <v>0.0017046803523492</v>
       </c>
       <c r="N23" t="n">
-        <v>6.04268343121846</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2528,46 +2528,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.868176428067158</v>
+        <v>0.23435476219272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.184873949579832</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0.049</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.000173350735643</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.166173794358508</v>
+        <v>-0.000226389563297</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0007316031495015</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.353777011516517</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.979796237979068</v>
+        <v>0.458383907943403</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.436974789915966</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.146</v>
+        <v>1.69</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0028590998043052</v>
+        <v>0.0049931647300068</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.004982034000897</v>
+        <v>-0.0318559222943983</v>
       </c>
       <c r="M25" t="n">
-        <v>-6.691850452582451e-05</v>
+        <v>0.0501648799965984</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.9582875371954</v>
+        <v>0.295453534319931</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2710,14 +2710,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2725,31 +2725,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0639410406163973</v>
+        <v>0.0002786511232118</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.310924369747899</v>
+        <v>0.29608938547486</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0006663120105162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0003324030822304</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0011063146139702</v>
+        <v>0.0009969481096403</v>
       </c>
       <c r="N26" t="n">
-        <v>1.02391231217762</v>
+        <v>1.85086669587854</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2801,46 +2801,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.790927919264752</v>
+        <v>0.464818262253535</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H27" t="n">
-        <v>0.823529411764706</v>
+        <v>0.602272727272727</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>83</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0167086001829826</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0471703927235483</v>
+        <v>-1.66173794358508</v>
       </c>
       <c r="M27" t="n">
-        <v>0.027207925421698</v>
+        <v>2.20071212519713</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.971430243196665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2892,46 +2892,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6.4058204491494e-07</v>
+        <v>0.580817701427443</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="H28" t="n">
-        <v>0.293785310734463</v>
+        <v>0.0591715976331361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.036</v>
+        <v>0.001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0008739531959268</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0005997536945812</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0011995073891625</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.42764776646356</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.371797026278993</v>
+        <v>0.0010011039066669</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0057142857142857</v>
+        <v>0.124260355029586</v>
       </c>
       <c r="H29" t="n">
-        <v>0.605714285714286</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="K29" t="n">
-        <v>0.499430264357338</v>
+        <v>0.0016541717325228</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.45398688239598</v>
+        <v>0.0005553609082968</v>
       </c>
       <c r="M29" t="n">
-        <v>2.2463565062026</v>
+        <v>0.0026000316143543</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5875650168909859</v>
+        <v>3.30834346504559</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3074,46 +3074,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.206099912112725</v>
+        <v>0.0007155332851087</v>
       </c>
       <c r="G30" t="n">
-        <v>0.585987261146497</v>
+        <v>0.0167597765363128</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06369426751592359</v>
+        <v>0.631284916201117</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001</v>
+        <v>0.056</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0016307673623648</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.0008429527228373</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.0024107584684431</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.91208457565146</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3176,35 +3176,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0257680716584897</v>
+        <v>0.494236759193211</v>
       </c>
       <c r="G31" t="n">
-        <v>0.13125</v>
+        <v>0.0055865921787709</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6125</v>
+        <v>0.379888268156425</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0495</v>
+        <v>0.146</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0009970427661509999</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0019915166237026</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0020068681318681</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="N31" t="n">
-        <v>2.01422781040616</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3256,14 +3256,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3271,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.041737451699503</v>
+        <v>0.04174097128747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.542372881355932</v>
+        <v>0.256983240223464</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.055</v>
+        <v>0.047</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0008650215724881</v>
+        <v>0.0002851288056206</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0016257101829682</v>
+        <v>0.0005852634756628</v>
       </c>
       <c r="N32" t="n">
-        <v>1.57276649543303</v>
+        <v>0.606657033235334</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3362,31 +3362,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.786161997147679</v>
+        <v>0.74619091062613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0056497175141242</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.389830508474576</v>
+        <v>0.776536312849162</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.14</v>
+        <v>1.73</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0006175032623188</v>
+        <v>-0.0066595871924668</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0027188556042073</v>
+        <v>-0.0248233306519386</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000799671592775</v>
+        <v>0.010154041759149</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.441073758799188</v>
+        <v>-0.38494723655878</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3425,188 +3425,6 @@
         </is>
       </c>
       <c r="W33" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Tokiahuru at Junction</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>15</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0267951367848368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.265536723163842</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.0003424488817458</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0006779245347387</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.728614642012425</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1811751.109</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5625193.502</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tokiahuru at Junction</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.785219531968827</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.7909604519774009</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.008431276943271801</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.025709289214886</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.009212675284141301</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-0.490190519957666</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1811751.109</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5625193.502</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
+++ b/trend_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -127,55 +127,61 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely likely increasing</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,31 +660,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.689291932838489</v>
+        <v>0.16957073264796</v>
       </c>
       <c r="G2">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.736842105263158</v>
+        <v>0.6875</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="K2">
-        <v>0.0244969818913481</v>
+        <v>-0.06838980414039721</v>
       </c>
       <c r="L2">
-        <v>-0.112233130445071</v>
+        <v>-0.227208441855149</v>
       </c>
       <c r="M2">
-        <v>0.330446479718203</v>
+        <v>0.0321411869968061</v>
       </c>
       <c r="N2">
-        <v>3.26626425217974</v>
+        <v>-8.04585931063497</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
@@ -693,19 +699,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -725,31 +731,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.101295586794652</v>
+        <v>0.084334309443908</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8245614035087721</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.04</v>
+        <v>11.02</v>
       </c>
       <c r="K3">
-        <v>-0.0702403846153843</v>
+        <v>-0.0802747252747253</v>
       </c>
       <c r="L3">
-        <v>-0.116321656050956</v>
+        <v>-0.134859357776462</v>
       </c>
       <c r="M3">
-        <v>0.0169782381657965</v>
+        <v>0.02175149859971</v>
       </c>
       <c r="N3">
-        <v>-0.636235367892974</v>
+        <v>-0.728445782892245</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
@@ -764,19 +770,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.442733116093124</v>
+        <v>0.0919014137219067</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.559322033898305</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0013185920577617</v>
       </c>
       <c r="L4">
-        <v>-0.0014577276944648</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M4">
-        <v>0.0018326209579927</v>
+        <v>0.0028672693309809</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.56376231827494</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -835,19 +841,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,31 +873,31 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.288474310124054</v>
+        <v>0.922645672344497</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.789473684210526</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K5">
-        <v>5.65468989405349</v>
+        <v>-14.9081632653061</v>
       </c>
       <c r="L5">
-        <v>-9.162121098438959</v>
+        <v>-34.0708399435015</v>
       </c>
       <c r="M5">
-        <v>19.1230865256225</v>
+        <v>2.89272453015675</v>
       </c>
       <c r="N5">
-        <v>5.7118079737914</v>
+        <v>-13.5528756957328</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
@@ -906,19 +912,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,16 +938,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>0.964285714285714</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="H6">
-        <v>0.0535714285714286</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -959,19 +965,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -988,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.999971774938631</v>
+        <v>0.995250246697171</v>
       </c>
       <c r="G7">
-        <v>0.6949152542372879</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="H7">
         <v>0.0508474576271186</v>
@@ -1030,19 +1036,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,13 +1068,13 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0648172904395064</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G8">
-        <v>0.0169491525423729</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H8">
-        <v>0.745762711864407</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1077,16 +1083,16 @@
         <v>0.057</v>
       </c>
       <c r="K8">
-        <v>0.0043798216586045</v>
+        <v>-0.0039755102040816</v>
       </c>
       <c r="L8">
-        <v>-0.0011925179477045</v>
+        <v>-0.006832418915255</v>
       </c>
       <c r="M8">
-        <v>0.0087278094056016</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="N8">
-        <v>7.68389764667466</v>
+        <v>-6.97457930540637</v>
       </c>
       <c r="O8" t="s">
         <v>41</v>
@@ -1101,19 +1107,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,31 +1139,31 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.977979214504943</v>
+        <v>0.801953633995708</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.689655172413793</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="K9">
-        <v>0.0474350649350651</v>
+        <v>0.0228725237624692</v>
       </c>
       <c r="L9">
-        <v>0.0069247020681628</v>
+        <v>-0.0198021520301131</v>
       </c>
       <c r="M9">
-        <v>0.08365306141275761</v>
+        <v>0.0666952348595172</v>
       </c>
       <c r="N9">
-        <v>0.606586508121037</v>
+        <v>0.291741374521291</v>
       </c>
       <c r="O9" t="s">
         <v>41</v>
@@ -1172,16 +1178,16 @@
         <v>5625193.502</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1201,31 +1207,31 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0102944668208415</v>
+        <v>0.786360546914012</v>
       </c>
       <c r="G10">
-        <v>0.0169491525423729</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H10">
-        <v>0.796610169491525</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0.063</v>
       </c>
       <c r="K10">
-        <v>0.0047424205259026</v>
+        <v>-0.0028430631868131</v>
       </c>
       <c r="L10">
-        <v>0.0010010937975817</v>
+        <v>-0.0067336043875787</v>
       </c>
       <c r="M10">
-        <v>0.0077927807657069</v>
+        <v>0.0013013638336771</v>
       </c>
       <c r="N10">
-        <v>7.52765162841693</v>
+        <v>-4.51279870922728</v>
       </c>
       <c r="O10" t="s">
         <v>41</v>
@@ -1240,19 +1246,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1272,7 +1278,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0618052011841176</v>
+        <v>0.0928534694193222</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1284,25 +1290,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="K11">
-        <v>0.0058777205803904</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0132939035486806</v>
+        <v>0.0108014308956634</v>
       </c>
       <c r="N11">
-        <v>4.19837184313606</v>
+        <v>3.8593617920541</v>
       </c>
       <c r="O11" t="s">
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1811751.109</v>
@@ -1311,19 +1317,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1343,37 +1349,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0884669204183241</v>
+        <v>0.204434717903381</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.491525423728814</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="K12">
-        <v>0.0012181767648693</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0006860748898571</v>
       </c>
       <c r="M12">
-        <v>0.0032801503322688</v>
+        <v>0.0021151511605389</v>
       </c>
       <c r="N12">
-        <v>2.48607503034566</v>
+        <v>1.39365842490843</v>
       </c>
       <c r="O12" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1811751.109</v>
@@ -1382,19 +1388,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1414,37 +1420,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.7660780865462909</v>
+        <v>0.941001723028281</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.88135593220339</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="K13">
-        <v>-0.0592938311688312</v>
+        <v>-0.10921096345515</v>
       </c>
       <c r="L13">
-        <v>-0.203333363928275</v>
+        <v>-0.231269460503544</v>
       </c>
       <c r="M13">
-        <v>0.0796154002709903</v>
+        <v>0.0045796982331178</v>
       </c>
       <c r="N13">
-        <v>-3.34993396434075</v>
+        <v>-7.09162100358114</v>
       </c>
       <c r="O13" t="s">
         <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1811751.109</v>
@@ -1453,19 +1459,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1482,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0.484151641774978</v>
+        <v>0.102564794585441</v>
       </c>
       <c r="G14">
-        <v>0.0307692307692308</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H14">
-        <v>0.476923076923077</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1500,22 +1506,22 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.0332089772575603</v>
       </c>
       <c r="L14">
-        <v>-0.0531619064196491</v>
+        <v>-0.0844973465401529</v>
       </c>
       <c r="M14">
-        <v>0.0509030445090602</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-3.32089772575603</v>
       </c>
       <c r="O14" t="s">
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1811751.109</v>
@@ -1524,19 +1530,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1556,31 +1562,31 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.0411855314935911</v>
+        <v>0.018724836700281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.745614035087719</v>
+        <v>0.75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.035</v>
+        <v>11.04</v>
       </c>
       <c r="K15">
-        <v>-0.0239901477832514</v>
+        <v>-0.028590998043053</v>
       </c>
       <c r="L15">
-        <v>-0.0400511102158035</v>
+        <v>-0.0470488153039463</v>
       </c>
       <c r="M15">
-        <v>-0.0011177105201414</v>
+        <v>-0.0067228245957798</v>
       </c>
       <c r="N15">
-        <v>-0.217400523636171</v>
+        <v>-0.258976431549393</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
@@ -1595,19 +1601,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1621,19 +1627,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.786114163939256</v>
+        <v>0.9294648147653261</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.369747899159664</v>
+        <v>0.34453781512605</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1642,22 +1648,22 @@
         <v>0.038</v>
       </c>
       <c r="K16">
-        <v>-0.0002438251001335</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L16">
-        <v>-0.0008553864168618</v>
+        <v>-0.0009967787556227001</v>
       </c>
       <c r="M16">
-        <v>0.0002951433115624</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-0.641645000351346</v>
+        <v>-1.3077336197637</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1811751.109</v>
@@ -1666,19 +1672,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1698,37 +1704,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.363125290486444</v>
+        <v>0.246402434170989</v>
       </c>
       <c r="G17">
-        <v>0.0086206896551724</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H17">
-        <v>0.646551724137931</v>
+        <v>0.6754385964912279</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.995774263904035</v>
+        <v>1.88427175900677</v>
       </c>
       <c r="L17">
-        <v>-2.51071755048896</v>
+        <v>-1.99705837839252</v>
       </c>
       <c r="M17">
-        <v>5.15041730162692</v>
+        <v>5.70463742945573</v>
       </c>
       <c r="N17">
-        <v>1.18544555226671</v>
+        <v>2.14121790796224</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1811751.109</v>
@@ -1737,19 +1743,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,22 +1772,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>0.376102716177754</v>
       </c>
       <c r="G18">
-        <v>0.964285714285714</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="H18">
-        <v>0.0625</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
+      <c r="J18">
+        <v>0.005</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
       <c r="O18" t="s">
         <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q18">
         <v>1811751.109</v>
@@ -1790,19 +1814,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1819,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.999912968069619</v>
+        <v>0.999987302373531</v>
       </c>
       <c r="G19">
-        <v>0.546218487394958</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="H19">
         <v>0.0840336134453782</v>
@@ -1861,19 +1885,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1890,40 +1914,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0079111401887909</v>
+        <v>0.726255032925419</v>
       </c>
       <c r="G20">
-        <v>0.092436974789916</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H20">
-        <v>0.613445378151261</v>
+        <v>0.579831932773109</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.051</v>
+        <v>0.0554</v>
       </c>
       <c r="K20">
-        <v>0.0025589969241285</v>
+        <v>-0.0008735052955244</v>
       </c>
       <c r="L20">
-        <v>0.0005892438054711</v>
+        <v>-0.0026753659597096</v>
       </c>
       <c r="M20">
-        <v>0.0039713253203498</v>
+        <v>0.0009995382210636001</v>
       </c>
       <c r="N20">
-        <v>5.01764102770295</v>
+        <v>-1.5767243601524</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1811751.109</v>
@@ -1932,19 +1956,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1964,31 +1988,31 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.998267900459865</v>
+        <v>0.981869916474992</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="K21">
-        <v>0.0255419580419581</v>
+        <v>0.0196900269541779</v>
       </c>
       <c r="L21">
-        <v>0.0121345514950165</v>
+        <v>0.0050171703296706</v>
       </c>
       <c r="M21">
-        <v>0.0378637423224775</v>
+        <v>0.0328361493443352</v>
       </c>
       <c r="N21">
-        <v>0.32872532872533</v>
+        <v>0.252760294662104</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
@@ -2003,16 +2027,16 @@
         <v>5625193.502</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2029,40 +2053,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0059512801902912</v>
+        <v>0.708701446207159</v>
       </c>
       <c r="G22">
-        <v>0.0252100840336134</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H22">
-        <v>0.613445378151261</v>
+        <v>0.596638655462185</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0.0618</v>
+        <v>0.063</v>
       </c>
       <c r="K22">
-        <v>0.0026834693877551</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="L22">
-        <v>0.0009974540812939</v>
+        <v>-0.0026375096279439</v>
       </c>
       <c r="M22">
-        <v>0.0040072786159921</v>
+        <v>0.0010933629537207</v>
       </c>
       <c r="N22">
-        <v>4.34218347533188</v>
+        <v>-0.792565830159816</v>
       </c>
       <c r="O22" t="s">
         <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1811751.109</v>
@@ -2071,19 +2095,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2100,40 +2124,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.653313583162647</v>
+        <v>0.969328449289468</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.352941176470588</v>
+        <v>0.26890756302521</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.003330547112462</v>
       </c>
       <c r="L23">
-        <v>-0.0033649646265444</v>
+        <v>-0.0050011410314924</v>
       </c>
       <c r="M23">
-        <v>0.0017046803523492</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-2.23526651843088</v>
       </c>
       <c r="O23" t="s">
         <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1811751.109</v>
@@ -2142,19 +2166,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2168,43 +2192,43 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.23435476219272</v>
+        <v>0.41629461304166</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.294117647058824</v>
+        <v>0.302521008403361</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="K24">
-        <v>0.000173350735643</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.000226389563297</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M24">
-        <v>0.0007316031495015</v>
+        <v>0.0005001141031492</v>
       </c>
       <c r="N24">
-        <v>0.353777011516517</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1811751.109</v>
@@ -2213,19 +2237,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2245,37 +2269,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.458383907943403</v>
+        <v>0.613131270075419</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.823529411764706</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="K25">
-        <v>0.0049931647300068</v>
+        <v>-0.008308689717925401</v>
       </c>
       <c r="L25">
-        <v>-0.0318559222943983</v>
+        <v>-0.0401332466676929</v>
       </c>
       <c r="M25">
-        <v>0.0501648799965984</v>
+        <v>0.0294588546731084</v>
       </c>
       <c r="N25">
-        <v>0.295453534319931</v>
+        <v>-0.50052347698346</v>
       </c>
       <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1811751.109</v>
@@ -2284,19 +2308,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2316,37 +2340,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.0002786511232118</v>
+        <v>0.0062128380388499</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.29608938547486</v>
+        <v>0.301675977653631</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="K26">
-        <v>0.0006663120105162</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="L26">
-        <v>0.0003324030822304</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="M26">
-        <v>0.0009969481096403</v>
+        <v>0.0008335235052487001</v>
       </c>
       <c r="N26">
-        <v>1.85086669587854</v>
+        <v>1.34950398108293</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1811751.109</v>
@@ -2355,19 +2379,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2384,31 +2408,31 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.464818262253535</v>
+        <v>0.458421306822502</v>
       </c>
       <c r="G27">
-        <v>0.0056818181818181</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H27">
-        <v>0.602272727272727</v>
+        <v>0.626436781609195</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>83</v>
+        <v>84.5</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-1.66173794358508</v>
+        <v>-1.5061567541498</v>
       </c>
       <c r="M27">
-        <v>2.20071212519713</v>
+        <v>2.00839118708364</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2417,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1811751.109</v>
@@ -2426,19 +2450,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2455,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.580817701427443</v>
+        <v>0.809694886639177</v>
       </c>
       <c r="G28">
-        <v>0.615384615384615</v>
+        <v>0.631284916201117</v>
       </c>
       <c r="H28">
-        <v>0.0591715976331361</v>
+        <v>0.0558659217877095</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2488,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1811751.109</v>
@@ -2497,19 +2521,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2529,13 +2553,13 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.0010011039066669</v>
+        <v>0.0317465821446058</v>
       </c>
       <c r="G29">
-        <v>0.124260355029586</v>
+        <v>0.122905027932961</v>
       </c>
       <c r="H29">
-        <v>0.591715976331361</v>
+        <v>0.569832402234637</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2544,22 +2568,22 @@
         <v>0.05</v>
       </c>
       <c r="K29">
-        <v>0.0016541717325228</v>
+        <v>0.000799671592775</v>
       </c>
       <c r="L29">
-        <v>0.0005553609082968</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.0026000316143543</v>
+        <v>0.0017025766196608</v>
       </c>
       <c r="N29">
-        <v>3.30834346504559</v>
+        <v>1.59934318555008</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1811751.109</v>
@@ -2568,19 +2592,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2600,37 +2624,37 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.0007155332851087</v>
+        <v>0.0706086679377339</v>
       </c>
       <c r="G30">
-        <v>0.0167597765363128</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="H30">
-        <v>0.631284916201117</v>
+        <v>0.608938547486033</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>0.056</v>
       </c>
       <c r="K30">
-        <v>0.0016307673623648</v>
+        <v>0.0008258272080748</v>
       </c>
       <c r="L30">
-        <v>0.0008429527228373</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0024107584684431</v>
+        <v>0.0016993021346469</v>
       </c>
       <c r="N30">
-        <v>2.91208457565146</v>
+        <v>1.4746914429908</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1811751.109</v>
@@ -2639,19 +2663,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2668,40 +2692,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>0.494236759193211</v>
+        <v>0.873259130734203</v>
       </c>
       <c r="G31">
-        <v>0.0055865921787709</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.379888268156425</v>
+        <v>0.368715083798883</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.146</v>
+        <v>0.14</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-0.0013789314365439</v>
       </c>
       <c r="L31">
-        <v>-0.0019915166237026</v>
+        <v>-0.0032169128604384</v>
       </c>
       <c r="M31">
-        <v>0.0016670470104974</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-0.9849510261028031</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1811751.109</v>
@@ -2710,19 +2734,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2736,19 +2760,19 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.04174097128747</v>
+        <v>0.0114349412837528</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.256983240223464</v>
+        <v>0.251396648044693</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2757,22 +2781,22 @@
         <v>0.047</v>
       </c>
       <c r="K32">
-        <v>0.0002851288056206</v>
+        <v>0.0003329535095715</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0005852634756628</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N32">
-        <v>0.606657033235334</v>
+        <v>0.708411722492678</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q32">
         <v>1811751.109</v>
@@ -2781,19 +2805,19 @@
         <v>5625193.502</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2813,37 +2837,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.74619091062613</v>
+        <v>0.875393401767564</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.776536312849162</v>
+        <v>0.754189944134078</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K33">
-        <v>-0.0066595871924668</v>
+        <v>-0.0130848384421461</v>
       </c>
       <c r="L33">
-        <v>-0.0248233306519386</v>
+        <v>-0.0337443065109255</v>
       </c>
       <c r="M33">
-        <v>0.010154041759149</v>
+        <v>0.0050958666285605</v>
       </c>
       <c r="N33">
-        <v>-0.38494723655878</v>
+        <v>-0.774250795393261</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1811751.109</v>
@@ -2852,19 +2876,516 @@
         <v>5625193.502</v>
       </c>
       <c r="S33" t="s">
+        <v>56</v>
+      </c>
+      <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" t="s">
+        <v>59</v>
+      </c>
+      <c r="W33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>0.0003638461826942</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.272300469483568</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.036</v>
+      </c>
+      <c r="K34">
+        <v>0.0004883021390374</v>
+      </c>
+      <c r="L34">
+        <v>0.0002496582365003</v>
+      </c>
+      <c r="M34">
+        <v>0.0007147749510763</v>
+      </c>
+      <c r="N34">
+        <v>1.35639483065954</v>
+      </c>
+      <c r="O34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s">
         <v>54</v>
       </c>
-      <c r="T33" t="s">
-        <v>55</v>
-      </c>
-      <c r="U33" t="s">
-        <v>56</v>
-      </c>
-      <c r="V33" t="s">
-        <v>57</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="Q34">
+        <v>1811751.109</v>
+      </c>
+      <c r="R34">
+        <v>5625193.502</v>
+      </c>
+      <c r="S34" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>59</v>
+      </c>
+      <c r="W34" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>0.381586940007958</v>
+      </c>
+      <c r="G35">
+        <v>0.0048309178743961</v>
+      </c>
+      <c r="H35">
+        <v>0.613526570048309</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>82</v>
+      </c>
+      <c r="K35">
+        <v>0.166704701049749</v>
+      </c>
+      <c r="L35">
+        <v>-1.17674643584138</v>
+      </c>
+      <c r="M35">
+        <v>1.75020619293965</v>
+      </c>
+      <c r="N35">
+        <v>0.203298415914328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35">
+        <v>1811751.109</v>
+      </c>
+      <c r="R35">
+        <v>5625193.502</v>
+      </c>
+      <c r="S35" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.112244897959184</v>
+      </c>
+      <c r="H36">
+        <v>0.556122448979592</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0.0547</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>-0.0006665227568687</v>
+      </c>
+      <c r="M36">
+        <v>0.0006971862674055</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36">
+        <v>1811751.109</v>
+      </c>
+      <c r="R36">
+        <v>5625193.502</v>
+      </c>
+      <c r="S36" t="s">
+        <v>56</v>
+      </c>
+      <c r="T36" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>0.45110051514203</v>
+      </c>
+      <c r="G37">
+        <v>0.0187793427230047</v>
+      </c>
+      <c r="H37">
+        <v>0.60093896713615</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>0.0618</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>-0.0007806919744209</v>
+      </c>
+      <c r="M37">
+        <v>0.0007369749015485</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37">
+        <v>1811751.109</v>
+      </c>
+      <c r="R37">
+        <v>5625193.502</v>
+      </c>
+      <c r="S37" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>59</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0.631492626651351</v>
+      </c>
+      <c r="G38">
+        <v>0.0046948356807511</v>
+      </c>
+      <c r="H38">
+        <v>0.328638497652582</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.14</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>-0.0017796994125</v>
+      </c>
+      <c r="M38">
+        <v>0.0009081251567271</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38">
+        <v>1811751.109</v>
+      </c>
+      <c r="R38">
+        <v>5625193.502</v>
+      </c>
+      <c r="S38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" t="s">
+        <v>59</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>0.406985095499012</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.234741784037559</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.048</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>-0.0001422313084112</v>
+      </c>
+      <c r="M39">
+        <v>0.0002485004441485</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39">
+        <v>1811751.109</v>
+      </c>
+      <c r="R39">
+        <v>5625193.502</v>
+      </c>
+      <c r="S39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T39" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>59</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>0.938185020998471</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.737089201877934</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.69</v>
+      </c>
+      <c r="K40">
+        <v>-0.0136355151816824</v>
+      </c>
+      <c r="L40">
+        <v>-0.0298675272189049</v>
+      </c>
+      <c r="M40">
+        <v>0.0002119711976142</v>
+      </c>
+      <c r="N40">
+        <v>-0.806835217851031</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40">
+        <v>1811751.109</v>
+      </c>
+      <c r="R40">
+        <v>5625193.502</v>
+      </c>
+      <c r="S40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>59</v>
+      </c>
+      <c r="W40" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
